--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Lgr5</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.15900598365902</v>
+        <v>0.220366</v>
       </c>
       <c r="N2">
-        <v>2.15900598365902</v>
+        <v>0.661098</v>
       </c>
       <c r="O2">
-        <v>0.868379405361967</v>
+        <v>0.07392971980931644</v>
       </c>
       <c r="P2">
-        <v>0.868379405361967</v>
+        <v>0.07748491934499904</v>
       </c>
       <c r="Q2">
-        <v>9.721494880435495</v>
+        <v>0.0007537251753333331</v>
       </c>
       <c r="R2">
-        <v>9.721494880435495</v>
+        <v>0.006783526577999999</v>
       </c>
       <c r="S2">
-        <v>0.868379405361967</v>
+        <v>5.018160772929697E-05</v>
       </c>
       <c r="T2">
-        <v>0.868379405361967</v>
+        <v>5.287871712668283E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.010261</v>
+      </c>
+      <c r="I3">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J3">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2.321162</v>
+      </c>
+      <c r="N3">
+        <v>6.963486</v>
+      </c>
+      <c r="O3">
+        <v>0.778717480428163</v>
+      </c>
+      <c r="P3">
+        <v>0.816165154137556</v>
+      </c>
+      <c r="Q3">
+        <v>0.007939147760666666</v>
+      </c>
+      <c r="R3">
+        <v>0.07145232984599999</v>
+      </c>
+      <c r="S3">
+        <v>0.0005285735592611856</v>
+      </c>
+      <c r="T3">
+        <v>0.0005569827868328388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.010261</v>
+      </c>
+      <c r="I4">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J4">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02892933333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.086788</v>
+      </c>
+      <c r="O4">
+        <v>0.009705387889255384</v>
+      </c>
+      <c r="P4">
+        <v>0.01017210939998877</v>
+      </c>
+      <c r="Q4">
+        <v>9.89479631111111E-05</v>
+      </c>
+      <c r="R4">
+        <v>0.000890531668</v>
+      </c>
+      <c r="S4">
+        <v>6.58776969770023E-06</v>
+      </c>
+      <c r="T4">
+        <v>6.941842362237595E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.010261</v>
+      </c>
+      <c r="I5">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J5">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4102925</v>
+      </c>
+      <c r="N5">
+        <v>0.820585</v>
+      </c>
+      <c r="O5">
+        <v>0.1376474118732652</v>
+      </c>
+      <c r="P5">
+        <v>0.09617781711745617</v>
+      </c>
+      <c r="Q5">
+        <v>0.001403337114166667</v>
+      </c>
+      <c r="R5">
+        <v>0.008420022684999999</v>
+      </c>
+      <c r="S5">
+        <v>9.343155155183912E-05</v>
+      </c>
+      <c r="T5">
+        <v>6.563547627341034E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="H3">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.327241352848322</v>
-      </c>
-      <c r="N3">
-        <v>0.327241352848322</v>
-      </c>
-      <c r="O3">
-        <v>0.131620594638033</v>
-      </c>
-      <c r="P3">
-        <v>0.131620594638033</v>
-      </c>
-      <c r="Q3">
-        <v>1.473490652856004</v>
-      </c>
-      <c r="R3">
-        <v>1.473490652856004</v>
-      </c>
-      <c r="S3">
-        <v>0.131620594638033</v>
-      </c>
-      <c r="T3">
-        <v>0.131620594638033</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.954393</v>
+      </c>
+      <c r="H6">
+        <v>14.863179</v>
+      </c>
+      <c r="I6">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J6">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.220366</v>
+      </c>
+      <c r="N6">
+        <v>0.661098</v>
+      </c>
+      <c r="O6">
+        <v>0.07392971980931644</v>
+      </c>
+      <c r="P6">
+        <v>0.07748491934499904</v>
+      </c>
+      <c r="Q6">
+        <v>1.091779767838</v>
+      </c>
+      <c r="R6">
+        <v>9.826017910541999</v>
+      </c>
+      <c r="S6">
+        <v>0.07268864810333539</v>
+      </c>
+      <c r="T6">
+        <v>0.07659544273893895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.954393</v>
+      </c>
+      <c r="H7">
+        <v>14.863179</v>
+      </c>
+      <c r="I7">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J7">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.321162</v>
+      </c>
+      <c r="N7">
+        <v>6.963486</v>
+      </c>
+      <c r="O7">
+        <v>0.778717480428163</v>
+      </c>
+      <c r="P7">
+        <v>0.816165154137556</v>
+      </c>
+      <c r="Q7">
+        <v>11.499948764666</v>
+      </c>
+      <c r="R7">
+        <v>103.499538881994</v>
+      </c>
+      <c r="S7">
+        <v>0.7656450078906646</v>
+      </c>
+      <c r="T7">
+        <v>0.8067961076518202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.954393</v>
+      </c>
+      <c r="H8">
+        <v>14.863179</v>
+      </c>
+      <c r="I8">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J8">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02892933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.086788</v>
+      </c>
+      <c r="O8">
+        <v>0.009705387889255384</v>
+      </c>
+      <c r="P8">
+        <v>0.01017210939998877</v>
+      </c>
+      <c r="Q8">
+        <v>0.1433272865613333</v>
+      </c>
+      <c r="R8">
+        <v>1.289945579052</v>
+      </c>
+      <c r="S8">
+        <v>0.00954246177055788</v>
+      </c>
+      <c r="T8">
+        <v>0.01005534018319074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.954393</v>
+      </c>
+      <c r="H9">
+        <v>14.863179</v>
+      </c>
+      <c r="I9">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J9">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4102925</v>
+      </c>
+      <c r="N9">
+        <v>0.820585</v>
+      </c>
+      <c r="O9">
+        <v>0.1376474118732652</v>
+      </c>
+      <c r="P9">
+        <v>0.09617781711745617</v>
+      </c>
+      <c r="Q9">
+        <v>2.0327502899525</v>
+      </c>
+      <c r="R9">
+        <v>12.196501739715</v>
+      </c>
+      <c r="S9">
+        <v>0.1353366996357775</v>
+      </c>
+      <c r="T9">
+        <v>0.09507375817190827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.16234</v>
+      </c>
+      <c r="I10">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J10">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.220366</v>
+      </c>
+      <c r="N10">
+        <v>0.661098</v>
+      </c>
+      <c r="O10">
+        <v>0.07392971980931644</v>
+      </c>
+      <c r="P10">
+        <v>0.07748491934499904</v>
+      </c>
+      <c r="Q10">
+        <v>0.01788710822</v>
+      </c>
+      <c r="R10">
+        <v>0.10732264932</v>
+      </c>
+      <c r="S10">
+        <v>0.00119089009825174</v>
+      </c>
+      <c r="T10">
+        <v>0.0008365978889334073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.16234</v>
+      </c>
+      <c r="I11">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J11">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.321162</v>
+      </c>
+      <c r="N11">
+        <v>6.963486</v>
+      </c>
+      <c r="O11">
+        <v>0.778717480428163</v>
+      </c>
+      <c r="P11">
+        <v>0.816165154137556</v>
+      </c>
+      <c r="Q11">
+        <v>0.18840871954</v>
+      </c>
+      <c r="R11">
+        <v>1.13045231724</v>
+      </c>
+      <c r="S11">
+        <v>0.01254389897823714</v>
+      </c>
+      <c r="T11">
+        <v>0.008812063698902939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.16234</v>
+      </c>
+      <c r="I12">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J12">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02892933333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.086788</v>
+      </c>
+      <c r="O12">
+        <v>0.009705387889255384</v>
+      </c>
+      <c r="P12">
+        <v>0.01017210939998877</v>
+      </c>
+      <c r="Q12">
+        <v>0.002348193986666667</v>
+      </c>
+      <c r="R12">
+        <v>0.01408916392</v>
+      </c>
+      <c r="S12">
+        <v>0.0001563383489998034</v>
+      </c>
+      <c r="T12">
+        <v>0.000109827374435791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.16234</v>
+      </c>
+      <c r="I13">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J13">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4102925</v>
+      </c>
+      <c r="N13">
+        <v>0.820585</v>
+      </c>
+      <c r="O13">
+        <v>0.1376474118732652</v>
+      </c>
+      <c r="P13">
+        <v>0.09617781711745617</v>
+      </c>
+      <c r="Q13">
+        <v>0.033303442225</v>
+      </c>
+      <c r="R13">
+        <v>0.1332137689</v>
+      </c>
+      <c r="S13">
+        <v>0.002217280685935907</v>
+      </c>
+      <c r="T13">
+        <v>0.00103842346927448</v>
       </c>
     </row>
   </sheetData>
